--- a/R/Analysis and figures/growth_rates_totalGHG.xlsx
+++ b/R/Analysis and figures/growth_rates_totalGHG.xlsx
@@ -473,16 +473,16 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>38.1621299601302</v>
+        <v>38.2702896008102</v>
       </c>
       <c r="E2" t="n">
-        <v>38.6290389861887</v>
+        <v>38.7346637006567</v>
       </c>
       <c r="F2" t="n">
-        <v>0.46690902605846</v>
+        <v>0.464374099846459</v>
       </c>
       <c r="G2" t="n">
-        <v>0.304478531738051</v>
+        <v>0.301980928468981</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>39.4498297784869</v>
+        <v>39.5818103628589</v>
       </c>
       <c r="E3" t="n">
-        <v>40.4534491063264</v>
+        <v>40.5887678435164</v>
       </c>
       <c r="F3" t="n">
-        <v>1.00361932783948</v>
+        <v>1.00695748065748</v>
       </c>
       <c r="G3" t="n">
-        <v>0.630030793142455</v>
+        <v>0.630018715667391</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +519,16 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>42.0284666950164</v>
+        <v>42.1572047453664</v>
       </c>
       <c r="E4" t="n">
-        <v>46.545953018339</v>
+        <v>46.699274497559</v>
       </c>
       <c r="F4" t="n">
-        <v>4.51748632332259</v>
+        <v>4.5420697521926</v>
       </c>
       <c r="G4" t="n">
-        <v>2.58517299676624</v>
+        <v>2.59107524616446</v>
       </c>
     </row>
     <row r="5">
@@ -542,16 +542,16 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>47.5369663849248</v>
+        <v>47.6893935016758</v>
       </c>
       <c r="E5" t="n">
-        <v>50.7450608190765</v>
+        <v>50.9143618335045</v>
       </c>
       <c r="F5" t="n">
-        <v>3.20809443415162</v>
+        <v>3.22496833182862</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64606685708777</v>
+        <v>1.64935479209034</v>
       </c>
     </row>
     <row r="6">
@@ -565,16 +565,16 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>52.3959394056302</v>
+        <v>52.5487454496572</v>
       </c>
       <c r="E6" t="n">
-        <v>56.155227931633</v>
+        <v>56.308127703112</v>
       </c>
       <c r="F6" t="n">
-        <v>3.75928852600279</v>
+        <v>3.75938225345479</v>
       </c>
       <c r="G6" t="n">
-        <v>1.747357942318</v>
+        <v>1.74244819140601</v>
       </c>
     </row>
     <row r="7">
@@ -588,16 +588,16 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>56.4057699069517</v>
+        <v>56.5672688429137</v>
       </c>
       <c r="E7" t="n">
-        <v>58.9645492886405</v>
+        <v>59.0906248276123</v>
       </c>
       <c r="F7" t="n">
-        <v>2.55877938168879</v>
+        <v>2.52335598469857</v>
       </c>
       <c r="G7" t="n">
-        <v>1.11529726020774</v>
+        <v>1.09701735074264</v>
       </c>
     </row>
     <row r="8">
@@ -611,16 +611,16 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>38.1621299601302</v>
+        <v>38.2702896008102</v>
       </c>
       <c r="E8" t="n">
-        <v>40.4534491063264</v>
+        <v>40.5887678435164</v>
       </c>
       <c r="F8" t="n">
-        <v>2.29131914619617</v>
+        <v>2.31847824270616</v>
       </c>
       <c r="G8" t="n">
-        <v>0.649972620867589</v>
+        <v>0.655668014242194</v>
       </c>
     </row>
     <row r="9">
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0284666950164</v>
+        <v>42.1572047453664</v>
       </c>
       <c r="E9" t="n">
-        <v>50.7450608190765</v>
+        <v>50.9143618335045</v>
       </c>
       <c r="F9" t="n">
-        <v>8.7165941240601</v>
+        <v>8.7571570881381</v>
       </c>
       <c r="G9" t="n">
-        <v>2.11615882627398</v>
+        <v>2.11924866270339</v>
       </c>
     </row>
     <row r="10">
@@ -657,16 +657,16 @@
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>52.3959394056302</v>
+        <v>52.5487454496572</v>
       </c>
       <c r="E10" t="n">
-        <v>58.9645492886405</v>
+        <v>59.0906248276123</v>
       </c>
       <c r="F10" t="n">
-        <v>6.56860988301029</v>
+        <v>6.54187937795507</v>
       </c>
       <c r="G10" t="n">
-        <v>1.32095191070043</v>
+        <v>1.31221333468605</v>
       </c>
     </row>
     <row r="11">
@@ -680,13 +680,13 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>39.3853458249026</v>
+        <v>39.5053005297908</v>
       </c>
       <c r="E11" t="n">
-        <v>46.6303175163788</v>
+        <v>46.7805861323945</v>
       </c>
       <c r="F11" t="n">
-        <v>7.24497169147618</v>
+        <v>7.27528560260369</v>
       </c>
       <c r="G11"/>
     </row>
@@ -701,13 +701,13 @@
         <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>46.6303175163788</v>
+        <v>46.7805861323945</v>
       </c>
       <c r="E12" t="n">
-        <v>55.7683569212275</v>
+        <v>55.9196403949908</v>
       </c>
       <c r="F12" t="n">
-        <v>9.13803940484873</v>
+        <v>9.13905426259631</v>
       </c>
       <c r="G12"/>
     </row>
@@ -722,13 +722,13 @@
         <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>38.2902560939772</v>
+        <v>38.3974638509244</v>
       </c>
       <c r="E13" t="n">
-        <v>40.480435555828</v>
+        <v>40.6131372086572</v>
       </c>
       <c r="F13" t="n">
-        <v>2.19017946185077</v>
+        <v>2.21567335773276</v>
       </c>
       <c r="G13"/>
     </row>
@@ -743,13 +743,13 @@
         <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>40.480435555828</v>
+        <v>40.6131372086572</v>
       </c>
       <c r="E14" t="n">
-        <v>43.8178389198451</v>
+        <v>43.9580317919371</v>
       </c>
       <c r="F14" t="n">
-        <v>3.33740336401714</v>
+        <v>3.34489458327995</v>
       </c>
       <c r="G14"/>
     </row>
@@ -764,13 +764,13 @@
         <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>43.8178389198451</v>
+        <v>43.9580317919371</v>
       </c>
       <c r="E15" t="n">
-        <v>49.4427961129125</v>
+        <v>49.6031404728519</v>
       </c>
       <c r="F15" t="n">
-        <v>5.62495719306732</v>
+        <v>5.64510868091472</v>
       </c>
       <c r="G15"/>
     </row>
@@ -785,13 +785,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>49.4427961129125</v>
+        <v>49.6031404728519</v>
       </c>
       <c r="E16" t="n">
-        <v>54.3762155854661</v>
+        <v>54.5403810064275</v>
       </c>
       <c r="F16" t="n">
-        <v>4.93341947255363</v>
+        <v>4.93724053357559</v>
       </c>
       <c r="G16"/>
     </row>
@@ -806,13 +806,13 @@
         <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>54.3762155854661</v>
+        <v>54.5403810064275</v>
       </c>
       <c r="E17" t="n">
-        <v>57.160498256989</v>
+        <v>57.2988997835542</v>
       </c>
       <c r="F17" t="n">
-        <v>2.78428267152285</v>
+        <v>2.75851877712673</v>
       </c>
       <c r="G17"/>
     </row>
